--- a/protobuff/backup/Taoist/道术计算公式说明.xlsx
+++ b/protobuff/backup/Taoist/道术计算公式说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8500" yWindow="740" windowWidth="29720" windowHeight="19740" tabRatio="500"/>
+    <workbookView xWindow="3820" yWindow="0" windowWidth="30200" windowHeight="18260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="计算公式说明" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
   <si>
     <t>初始等级为1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -85,43 +85,47 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>delta_0=</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>value_i=</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>value_(i-1)+delta_(i-1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>delta_i=</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>initDelta+acc_i</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>acc_i=</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>((i-1) div levelDelta) * accDelta</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>value_(i-1)+delta_(i)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>value_1=</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>init</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>delta_0=</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>value_i=</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>value_(i-1)+delta_(i-1)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>delta_i=</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>initDelta+acc_i</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>acc_i=</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>((i-1) div levelDelta) * accDelta</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>速度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>value_(i-1)+delta_(i)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -200,8 +204,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -222,11 +250,35 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="29">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -556,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -568,7 +620,7 @@
     <col min="7" max="7" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -599,11 +651,30 @@
         <v>10</v>
       </c>
       <c r="K1" s="3">
-        <f t="shared" ref="K1:K18" si="1">INT(($H1-1) /3 )*5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+        <f>INT(($H1-1) /5 )*5</f>
+        <v>0</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="3">
+        <v>10</v>
+      </c>
+      <c r="N1" s="2">
+        <v>1</v>
+      </c>
+      <c r="O1" s="3">
+        <v>10</v>
+      </c>
+      <c r="P1" s="3">
+        <f>10+$Q1</f>
+        <v>10</v>
+      </c>
+      <c r="Q1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="3"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -627,11 +698,31 @@
         <v>10</v>
       </c>
       <c r="K2" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <f t="shared" ref="K2:K18" si="1">INT(($H2-1) /5 )*5</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="3">
+        <v>10</v>
+      </c>
+      <c r="N2" s="2">
+        <v>2</v>
+      </c>
+      <c r="O2" s="3">
+        <f>$O1+$P2</f>
+        <v>20</v>
+      </c>
+      <c r="P2" s="3">
+        <f t="shared" ref="P2:P18" si="2">10+$Q2</f>
+        <v>10</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -643,13 +734,13 @@
         <v>7</v>
       </c>
       <c r="G3" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H3" s="2">
         <v>3</v>
       </c>
       <c r="I3" s="3">
-        <f t="shared" ref="I3:I18" si="2">$I2+$J3</f>
+        <f t="shared" ref="I3:I18" si="3">$I2+$J3</f>
         <v>30</v>
       </c>
       <c r="J3" s="3">
@@ -660,8 +751,28 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2">
+        <v>3</v>
+      </c>
+      <c r="O3" s="3">
+        <f t="shared" ref="O3:O18" si="4">$O2+$P3</f>
+        <v>30</v>
+      </c>
+      <c r="P3" s="3">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -687,19 +798,39 @@
         <v>4</v>
       </c>
       <c r="I4" s="3">
-        <f t="shared" si="2"/>
-        <v>45</v>
+        <f t="shared" si="3"/>
+        <v>40</v>
       </c>
       <c r="J4" s="3">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K4" s="3">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
+        <v>4</v>
+      </c>
+      <c r="O4" s="3">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="P4" s="3">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="3"/>
       <c r="B5" s="2">
         <v>1</v>
@@ -719,25 +850,40 @@
         <v>5</v>
       </c>
       <c r="I5" s="3">
-        <f t="shared" si="2"/>
-        <v>60</v>
+        <f t="shared" si="3"/>
+        <v>50</v>
       </c>
       <c r="J5" s="3">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K5" s="3">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="3"/>
+      <c r="N5" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="O5" s="3">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="P5" s="3">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="2"/>
       <c r="B6" s="2">
         <v>2</v>
       </c>
       <c r="C6" s="2">
-        <f t="shared" ref="C6:C22" si="3">C5+D6</f>
+        <f t="shared" ref="C6:C22" si="5">C5+D6</f>
         <v>20</v>
       </c>
       <c r="D6" s="2">
@@ -752,8 +898,8 @@
         <v>6</v>
       </c>
       <c r="I6" s="3">
-        <f t="shared" si="2"/>
-        <v>75</v>
+        <f t="shared" si="3"/>
+        <v>65</v>
       </c>
       <c r="J6" s="3">
         <f t="shared" si="0"/>
@@ -763,14 +909,29 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="L6" s="3"/>
+      <c r="N6" s="2">
+        <v>6</v>
+      </c>
+      <c r="O6" s="3">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="P6" s="3">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="2"/>
       <c r="B7" s="2">
         <v>3</v>
       </c>
       <c r="C7" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="D7" s="2">
@@ -779,150 +940,218 @@
       <c r="E7" s="3">
         <v>0</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="G7" s="3"/>
       <c r="H7" s="2">
         <v>7</v>
       </c>
       <c r="I7" s="3">
-        <f t="shared" si="2"/>
-        <v>95</v>
+        <f t="shared" si="3"/>
+        <v>80</v>
       </c>
       <c r="J7" s="3">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K7" s="3">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>5</v>
+      </c>
+      <c r="L7" s="3"/>
+      <c r="N7" s="2">
+        <v>7</v>
+      </c>
+      <c r="O7" s="3">
+        <f t="shared" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="P7" s="3">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="2"/>
       <c r="B8" s="2">
         <v>4</v>
       </c>
       <c r="C8" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>45</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" ref="D8:D22" si="4">D5+5</f>
+        <f t="shared" ref="D8:D22" si="6">D5+5</f>
         <v>15</v>
       </c>
       <c r="E8" s="3">
         <v>5</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
       <c r="H8" s="2">
         <v>8</v>
       </c>
       <c r="I8" s="3">
-        <f t="shared" si="2"/>
-        <v>115</v>
+        <f t="shared" si="3"/>
+        <v>95</v>
       </c>
       <c r="J8" s="3">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K8" s="3">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>5</v>
+      </c>
+      <c r="L8" s="3"/>
+      <c r="N8" s="2">
+        <v>8</v>
+      </c>
+      <c r="O8" s="3">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="P8" s="3">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="2"/>
       <c r="B9" s="2">
         <v>5</v>
       </c>
       <c r="C9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="E9" s="3">
         <v>5</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
       <c r="H9" s="2">
         <v>9</v>
       </c>
       <c r="I9" s="3">
-        <f t="shared" si="2"/>
-        <v>135</v>
+        <f t="shared" si="3"/>
+        <v>110</v>
       </c>
       <c r="J9" s="3">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K9" s="3">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>5</v>
+      </c>
+      <c r="L9" s="3"/>
+      <c r="N9" s="2">
+        <v>9</v>
+      </c>
+      <c r="O9" s="3">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="P9" s="3">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="2"/>
       <c r="B10" s="2">
         <v>6</v>
       </c>
       <c r="C10" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="E10" s="3">
         <v>5</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>16</v>
+      <c r="F10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="H10" s="2">
         <v>10</v>
       </c>
       <c r="I10" s="3">
-        <f t="shared" si="2"/>
-        <v>160</v>
+        <f t="shared" si="3"/>
+        <v>125</v>
       </c>
       <c r="J10" s="3">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K10" s="3">
         <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>5</v>
+      </c>
+      <c r="L10" s="3"/>
+      <c r="N10" s="2">
+        <v>10</v>
+      </c>
+      <c r="O10" s="3">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="P10" s="3">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="2"/>
       <c r="B11" s="2">
         <v>7</v>
       </c>
       <c r="C11" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>95</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="E11" s="3">
         <v>10</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G11" s="3">
         <v>0</v>
@@ -931,143 +1160,197 @@
         <v>11</v>
       </c>
       <c r="I11" s="3">
-        <f t="shared" si="2"/>
-        <v>185</v>
+        <f t="shared" si="3"/>
+        <v>145</v>
       </c>
       <c r="J11" s="3">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K11" s="3">
         <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>10</v>
+      </c>
+      <c r="L11" s="3"/>
+      <c r="N11" s="2">
+        <v>11</v>
+      </c>
+      <c r="O11" s="3">
+        <f t="shared" si="4"/>
+        <v>110</v>
+      </c>
+      <c r="P11" s="3">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="2"/>
       <c r="B12" s="2">
         <v>8</v>
       </c>
       <c r="C12" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>115</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="E12" s="3">
         <v>10</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="H12" s="2">
         <v>12</v>
       </c>
       <c r="I12" s="3">
-        <f t="shared" si="2"/>
-        <v>210</v>
+        <f t="shared" si="3"/>
+        <v>165</v>
       </c>
       <c r="J12" s="3">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K12" s="3">
         <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>10</v>
+      </c>
+      <c r="L12" s="3"/>
+      <c r="N12" s="2">
+        <v>12</v>
+      </c>
+      <c r="O12" s="3">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="P12" s="3">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="2"/>
       <c r="B13" s="2">
         <v>9</v>
       </c>
       <c r="C13" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>135</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="E13" s="3">
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="H13" s="2">
         <v>13</v>
       </c>
       <c r="I13" s="3">
-        <f t="shared" si="2"/>
-        <v>240</v>
+        <f t="shared" si="3"/>
+        <v>185</v>
       </c>
       <c r="J13" s="3">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K13" s="3">
         <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>10</v>
+      </c>
+      <c r="L13" s="3"/>
+      <c r="N13" s="2">
+        <v>13</v>
+      </c>
+      <c r="O13" s="3">
+        <f t="shared" si="4"/>
+        <v>130</v>
+      </c>
+      <c r="P13" s="3">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="2"/>
       <c r="B14" s="2">
         <v>10</v>
       </c>
       <c r="C14" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>160</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="E14" s="3">
         <v>15</v>
       </c>
       <c r="F14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="H14" s="2">
         <v>14</v>
       </c>
       <c r="I14" s="3">
-        <f t="shared" si="2"/>
-        <v>270</v>
+        <f t="shared" si="3"/>
+        <v>205</v>
       </c>
       <c r="J14" s="3">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K14" s="3">
         <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>10</v>
+      </c>
+      <c r="L14" s="3"/>
+      <c r="N14" s="2">
+        <v>14</v>
+      </c>
+      <c r="O14" s="3">
+        <f t="shared" si="4"/>
+        <v>140</v>
+      </c>
+      <c r="P14" s="3">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="2"/>
       <c r="B15" s="2">
         <v>11</v>
       </c>
       <c r="C15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>185</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="E15" s="3">
@@ -1079,67 +1362,97 @@
         <v>15</v>
       </c>
       <c r="I15" s="3">
-        <f t="shared" si="2"/>
-        <v>300</v>
+        <f t="shared" si="3"/>
+        <v>225</v>
       </c>
       <c r="J15" s="3">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K15" s="3">
         <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>10</v>
+      </c>
+      <c r="L15" s="3"/>
+      <c r="N15" s="2">
+        <v>15</v>
+      </c>
+      <c r="O15" s="3">
+        <f t="shared" si="4"/>
+        <v>150</v>
+      </c>
+      <c r="P15" s="3">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="2"/>
       <c r="B16" s="2">
         <v>12</v>
       </c>
       <c r="C16" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>210</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="E16" s="3">
         <v>15</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H16" s="2">
         <v>16</v>
       </c>
       <c r="I16" s="3">
-        <f t="shared" si="2"/>
-        <v>335</v>
+        <f t="shared" si="3"/>
+        <v>250</v>
       </c>
       <c r="J16" s="3">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="K16" s="3">
         <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>15</v>
+      </c>
+      <c r="L16" s="3"/>
+      <c r="N16" s="2">
+        <v>16</v>
+      </c>
+      <c r="O16" s="3">
+        <f t="shared" si="4"/>
+        <v>160</v>
+      </c>
+      <c r="P16" s="3">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="2"/>
       <c r="B17" s="2">
         <v>13</v>
       </c>
       <c r="C17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>240</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="E17" s="3">
@@ -1151,29 +1464,44 @@
         <v>17</v>
       </c>
       <c r="I17" s="3">
-        <f t="shared" si="2"/>
-        <v>370</v>
+        <f t="shared" si="3"/>
+        <v>275</v>
       </c>
       <c r="J17" s="3">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="K17" s="3">
         <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>15</v>
+      </c>
+      <c r="L17" s="3"/>
+      <c r="N17" s="2">
+        <v>17</v>
+      </c>
+      <c r="O17" s="3">
+        <f t="shared" si="4"/>
+        <v>170</v>
+      </c>
+      <c r="P17" s="3">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="2"/>
       <c r="B18" s="2">
         <v>14</v>
       </c>
       <c r="C18" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>270</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="E18" s="3">
@@ -1185,29 +1513,44 @@
         <v>18</v>
       </c>
       <c r="I18" s="3">
-        <f t="shared" si="2"/>
-        <v>405</v>
+        <f t="shared" si="3"/>
+        <v>300</v>
       </c>
       <c r="J18" s="3">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="K18" s="3">
         <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>15</v>
+      </c>
+      <c r="L18" s="3"/>
+      <c r="N18" s="2">
+        <v>18</v>
+      </c>
+      <c r="O18" s="3">
+        <f t="shared" si="4"/>
+        <v>180</v>
+      </c>
+      <c r="P18" s="3">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="3"/>
       <c r="B19" s="2">
         <v>15</v>
       </c>
       <c r="C19" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>300</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="E19" s="3">
@@ -1222,23 +1565,36 @@
         <v>10</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K19" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="L19" s="3"/>
+      <c r="N19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="3"/>
       <c r="B20" s="2">
         <v>16</v>
       </c>
       <c r="C20" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>335</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
       <c r="E20" s="3">
@@ -1250,18 +1606,19 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="3"/>
       <c r="B21" s="2">
         <v>17</v>
       </c>
       <c r="C21" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>370</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
       <c r="E21" s="3">
@@ -1273,18 +1630,19 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="3"/>
       <c r="B22" s="2">
         <v>18</v>
       </c>
       <c r="C22" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>405</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
       <c r="E22" s="3">
@@ -1296,6 +1654,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
